--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/AVGScripts/后续引导AVG/养成引导_异质物升级.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/AVGScripts/后续引导AVG/养成引导_异质物升级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13890"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_C1_ScpLevelUp" sheetId="12" r:id="rId1"/>
@@ -209,7 +209,7 @@
     <t>系统-打开界面</t>
   </si>
   <si>
-    <t>ui_unit/ui_unit_info</t>
+    <t>ui_unit/ui_unit_package</t>
   </si>
   <si>
     <t>{#涂凌休闲动作}{#涂凌待机表情}等级提升会大幅提升异质物的作战能力。</t>
@@ -548,12 +548,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2637,7 +2637,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -2681,25 +2681,33 @@
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="18">
+      <c r="D2" s="18" t="str">
         <f ca="1">INDEX($D$5:$D$895,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="19" t="e">
+        <v>系统-打开界面</v>
+      </c>
+      <c r="E2" s="19" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="20" t="e">
+        <v>ui_charpter_start
+【UI界面名称】
+该界面路径为: Resources/UI/</v>
+      </c>
+      <c r="F2" s="20" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="20" t="e">
+        <v>此字符串参数和特定界面有关
+手机界面：参考示例 1|1039
+【1/2】:1代表视频来电，2代表短信
+【1039】：代表AVG角色表里的角色ID
+档案列表界面：1/2
+1代表角色档案列表；2代表异质物列表</v>
+      </c>
+      <c r="G2" s="20" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H2" s="20" t="e">
+        <v>不填或填0会中断avg（默认），直到该界面关闭
+其他情况avg会继续播放</v>
+      </c>
+      <c r="H2" s="20" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="J2" s="47" t="s">
         <v>6</v>
@@ -3065,9 +3073,7 @@
       <c r="E20" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="33">
-        <v>101</v>
-      </c>
+      <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="48"/>
